--- a/Hardware/McuOpenPnP Bill of Material.xlsx
+++ b/Hardware/McuOpenPnP Bill of Material.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{629AF23B-E943-40C6-BE4F-8C33E6B0FB12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5792FD0-EA88-442A-BD23-C5B5DFADFE4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>McuOpenPnP Machine Bill of Material</t>
   </si>
@@ -119,12 +119,6 @@
     <t>Diaphragma Vacuum Pump</t>
   </si>
   <si>
-    <t>Vacuum T</t>
-  </si>
-  <si>
-    <t>Vacuum Socket</t>
-  </si>
-  <si>
     <t>http://www.robotdigg.com/product/599/Diaphragm+pump+4+desktop+PNP+Machine</t>
   </si>
   <si>
@@ -333,6 +327,33 @@
   </si>
   <si>
     <t>USB Hub and cables</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/en/angle-plug-in-connector-mm-smc-kq2l06-00a/p/11030259?q=110-30-259&amp;page=1&amp;origPos=1&amp;origPageSize=25&amp;simi=99.9&amp;no-cache=true</t>
+  </si>
+  <si>
+    <t>Vacuum Angle 90° Connector 6mm</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/en/plug-branch-mm-smc-kq2u06-00a/p/11030269?q=110-30-269&amp;page=1&amp;origPos=1&amp;origPageSize=25&amp;simi=99.9&amp;no-cache=true</t>
+  </si>
+  <si>
+    <t>Vacuum Y Plug</t>
+  </si>
+  <si>
+    <t>Distrelec 110-30-259</t>
+  </si>
+  <si>
+    <t>Distrelec 110-30-269</t>
+  </si>
+  <si>
+    <t>Distrelec 110-30-132</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/en/straight-plug-in-connector-r1-mm-smc-kq2h06-01as/p/11030132?q=110-30-132&amp;page=1&amp;origPos=1&amp;origPageSize=25&amp;simi=99.9&amp;no-cache=true</t>
+  </si>
+  <si>
+    <t>Vacuum Straight R1/8" 6mm</t>
   </si>
 </sst>
 </file>
@@ -770,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +818,8 @@
         <v>18</v>
       </c>
       <c r="E2" s="12">
-        <f>SUM(E4:E64)</f>
-        <v>907.61000000000013</v>
+        <f>SUM(E4:E65)</f>
+        <v>932.98000000000013</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -947,7 +968,7 @@
         <v>3.45</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:E39" si="0">C9*D9</f>
+        <f t="shared" ref="E9:E40" si="0">C9*D9</f>
         <v>3.45</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1014,81 +1035,109 @@
         <v>10.8</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>5.32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <f>3/6</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1097,22 +1146,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="6">
-        <v>33.700000000000003</v>
+        <v>9.5</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>33.700000000000003</v>
+        <v>9.5</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1121,341 +1170,343 @@
         <v>1</v>
       </c>
       <c r="D18" s="6">
-        <v>5.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="6">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>5.5</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
         <v>100</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <f>15/100</f>
         <v>0.15</v>
       </c>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <f>1.56/4</f>
         <v>0.39</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>17.29</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="0"/>
-        <v>34.58</v>
-      </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="6">
-        <v>204</v>
+        <v>17.29</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>58</v>
+        <v>34.58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="6">
-        <v>25.45</v>
+        <v>204</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>25.45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>204</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>25.45</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>25.45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <f>57.78/2</f>
         <v>28.89</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>57.78</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
+      <c r="G27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <f>10.3/4</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="G28" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <f>29.19/3</f>
         <v>9.73</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>29.19</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="G29" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <f>18.4/2</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="G30" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <f>14.17/2</f>
         <v>7.085</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>14.17</v>
       </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <f>1.94/4</f>
         <v>0.48499999999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>1.94</v>
       </c>
-      <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="6">
-        <f>6.62/2</f>
-        <v>3.31</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>6.62</v>
+      <c r="F32" t="s">
+        <v>38</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,52 +1514,50 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="6">
-        <v>10.9</v>
+        <f>6.62/2</f>
+        <v>3.31</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>43.6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>88</v>
+        <v>6.62</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>90</v>
+      <c r="A34" t="s">
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" s="6">
-        <v>21</v>
+        <v>10.9</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43.6</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -1517,125 +1566,136 @@
         <v>2</v>
       </c>
       <c r="D35" s="6">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>87</v>
+      <c r="A36" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" s="6">
-        <v>0.15</v>
+        <v>6</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="6">
-        <v>1.6</v>
+        <v>0.15</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="6">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>2.4</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
+      <c r="G40" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1643,12 +1703,12 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1656,12 +1716,12 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1674,7 +1734,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1682,12 +1742,12 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1695,52 +1755,65 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
+      <c r="F49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>25</v>
       </c>
-      <c r="F51" t="s">
-        <v>102</v>
+      <c r="F52" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1754,33 +1827,36 @@
     <hyperlink ref="G10" r:id="rId7" xr:uid="{4AEF9147-F0F9-4285-A5D2-0A9F989F14FA}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{D5818AA4-A9E9-4C68-90FC-A7EFEB2674F2}"/>
     <hyperlink ref="G12" r:id="rId9" xr:uid="{A886D7E1-CCC4-49E6-B0F0-DF92890961DB}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{9AEEDAF2-AFD9-4C1C-8592-DE9A5CE50644}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{61B5ECA3-6C76-46A4-943F-4D90128E54E8}"/>
-    <hyperlink ref="G18" r:id="rId12" xr:uid="{14BF7C9F-29D7-4B95-95C6-6103EC7D9195}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{41A26133-EE67-493C-ACF8-BCB3D8239268}"/>
-    <hyperlink ref="G20" r:id="rId14" xr:uid="{D7220C15-D2A8-4F50-9102-B586A0C239B2}"/>
-    <hyperlink ref="G19" r:id="rId15" xr:uid="{93BC79CB-38DC-43F0-9FEA-740872A87B2F}"/>
-    <hyperlink ref="G21" r:id="rId16" xr:uid="{C44A18AC-7EA9-4B91-9E6B-4B42293BDEB7}"/>
-    <hyperlink ref="G24" r:id="rId17" xr:uid="{3CE9F0C1-15E1-49DD-9431-346D7A0DA37A}"/>
-    <hyperlink ref="G26" r:id="rId18" xr:uid="{F1FABFA4-FF64-40EA-9D79-9BE376130AAF}"/>
-    <hyperlink ref="G29" r:id="rId19" xr:uid="{E5535309-2428-4912-B25C-6B637BBA07D7}"/>
-    <hyperlink ref="G28" r:id="rId20" xr:uid="{81D11312-274F-475D-A8DE-A096C3595F11}"/>
-    <hyperlink ref="G30" r:id="rId21" xr:uid="{1E261826-31F7-4DE2-86D7-7B54F31AC2CA}"/>
-    <hyperlink ref="G27" r:id="rId22" xr:uid="{AC606422-D825-4650-8C93-2705DBDFEC24}"/>
-    <hyperlink ref="G31" r:id="rId23" xr:uid="{27444E22-45EE-4431-9DA4-EFAF3EC77658}"/>
-    <hyperlink ref="G32" r:id="rId24" xr:uid="{FFE4FDC0-8692-4FAC-BBA7-696048CF6EF6}"/>
-    <hyperlink ref="G23" r:id="rId25" xr:uid="{12F18380-274F-458F-A5E8-90A5DB338385}"/>
-    <hyperlink ref="G25" r:id="rId26" xr:uid="{387C82AF-BFAD-4B21-98F6-DD5DF873DBD7}"/>
-    <hyperlink ref="G33" r:id="rId27" xr:uid="{D989BBC7-74FE-41F1-B744-762C9613EA31}"/>
-    <hyperlink ref="G37" r:id="rId28" xr:uid="{B3883437-B95C-483F-966E-265612F08791}"/>
-    <hyperlink ref="G35" r:id="rId29" xr:uid="{CDA65216-1F45-4680-951D-7219777BB957}"/>
-    <hyperlink ref="G34" r:id="rId30" xr:uid="{0268D412-8E4E-4123-8476-1309D49F8060}"/>
-    <hyperlink ref="G36" r:id="rId31" xr:uid="{26C83ADA-154B-4F5B-98C0-81F7628209CA}"/>
-    <hyperlink ref="G38" r:id="rId32" xr:uid="{90C6D425-118D-4340-AF2E-24EBAE6FF594}"/>
-    <hyperlink ref="G39" r:id="rId33" xr:uid="{1D6AEC28-1A09-4A84-A563-13FA41FA5599}"/>
-    <hyperlink ref="G22" r:id="rId34" xr:uid="{11E4EEFE-839F-4817-B79C-1FD3775880ED}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{9AEEDAF2-AFD9-4C1C-8592-DE9A5CE50644}"/>
+    <hyperlink ref="G17" r:id="rId11" xr:uid="{61B5ECA3-6C76-46A4-943F-4D90128E54E8}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{14BF7C9F-29D7-4B95-95C6-6103EC7D9195}"/>
+    <hyperlink ref="G18" r:id="rId13" xr:uid="{41A26133-EE67-493C-ACF8-BCB3D8239268}"/>
+    <hyperlink ref="G21" r:id="rId14" xr:uid="{D7220C15-D2A8-4F50-9102-B586A0C239B2}"/>
+    <hyperlink ref="G20" r:id="rId15" xr:uid="{93BC79CB-38DC-43F0-9FEA-740872A87B2F}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{C44A18AC-7EA9-4B91-9E6B-4B42293BDEB7}"/>
+    <hyperlink ref="G25" r:id="rId17" xr:uid="{3CE9F0C1-15E1-49DD-9431-346D7A0DA37A}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{F1FABFA4-FF64-40EA-9D79-9BE376130AAF}"/>
+    <hyperlink ref="G30" r:id="rId19" xr:uid="{E5535309-2428-4912-B25C-6B637BBA07D7}"/>
+    <hyperlink ref="G29" r:id="rId20" xr:uid="{81D11312-274F-475D-A8DE-A096C3595F11}"/>
+    <hyperlink ref="G31" r:id="rId21" xr:uid="{1E261826-31F7-4DE2-86D7-7B54F31AC2CA}"/>
+    <hyperlink ref="G28" r:id="rId22" xr:uid="{AC606422-D825-4650-8C93-2705DBDFEC24}"/>
+    <hyperlink ref="G32" r:id="rId23" xr:uid="{27444E22-45EE-4431-9DA4-EFAF3EC77658}"/>
+    <hyperlink ref="G33" r:id="rId24" xr:uid="{FFE4FDC0-8692-4FAC-BBA7-696048CF6EF6}"/>
+    <hyperlink ref="G24" r:id="rId25" xr:uid="{12F18380-274F-458F-A5E8-90A5DB338385}"/>
+    <hyperlink ref="G26" r:id="rId26" xr:uid="{387C82AF-BFAD-4B21-98F6-DD5DF873DBD7}"/>
+    <hyperlink ref="G34" r:id="rId27" xr:uid="{D989BBC7-74FE-41F1-B744-762C9613EA31}"/>
+    <hyperlink ref="G38" r:id="rId28" xr:uid="{B3883437-B95C-483F-966E-265612F08791}"/>
+    <hyperlink ref="G36" r:id="rId29" xr:uid="{CDA65216-1F45-4680-951D-7219777BB957}"/>
+    <hyperlink ref="G35" r:id="rId30" xr:uid="{0268D412-8E4E-4123-8476-1309D49F8060}"/>
+    <hyperlink ref="G37" r:id="rId31" xr:uid="{26C83ADA-154B-4F5B-98C0-81F7628209CA}"/>
+    <hyperlink ref="G39" r:id="rId32" xr:uid="{90C6D425-118D-4340-AF2E-24EBAE6FF594}"/>
+    <hyperlink ref="G40" r:id="rId33" xr:uid="{1D6AEC28-1A09-4A84-A563-13FA41FA5599}"/>
+    <hyperlink ref="G23" r:id="rId34" xr:uid="{11E4EEFE-839F-4817-B79C-1FD3775880ED}"/>
+    <hyperlink ref="G13" r:id="rId35" xr:uid="{5C47A132-2061-40C2-BAFC-2004A40E3329}"/>
+    <hyperlink ref="G14" r:id="rId36" xr:uid="{D99571AD-D304-4C3A-AE25-2371231161C1}"/>
+    <hyperlink ref="G15" r:id="rId37" xr:uid="{A04D0F76-18D2-4C64-93A3-84A9C02D5682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Hardware/McuOpenPnP Bill of Material.xlsx
+++ b/Hardware/McuOpenPnP Bill of Material.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5792FD0-EA88-442A-BD23-C5B5DFADFE4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
   <si>
     <t>McuOpenPnP Machine Bill of Material</t>
   </si>
@@ -125,9 +124,6 @@
     <t>Optical Endstops</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/Free-Shipping-Optical-Endstop-Light-Control-Limit-Optical-Switch-for-3D-Printers-RAMPS-1-4/32246136817.html</t>
-  </si>
-  <si>
     <t>LCD for Smoothieboard</t>
   </si>
   <si>
@@ -354,12 +350,24 @@
   </si>
   <si>
     <t>Vacuum Straight R1/8" 6mm</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/en/dc-power-supply-vdc-traco-power-txl-025-05s/p/16997951?q=169-97-951&amp;page=1&amp;origPos=1&amp;origPageSize=25&amp;simi=99.9&amp;no-cache=true</t>
+  </si>
+  <si>
+    <t>5V Power Supply 5A</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/3-Pcs-Opto-Optical-Endstop-End-Stop-Switch-CNC-For-3D-Printer-Mendel-Prusa-8-SL/32880194333.html?spm=2114.search0104.3.8.42165828iJdqdv&amp;ws_ab_test=searchweb0_0,searchweb201602_5_10846_10152_10065_10151_10344_10068_10342_10343_10340_10059_10341_10696_100031_10084_10083_10103_524_10618_10307_10624_10623_10622_10621_10620_10134,searchweb201603_35,ppcSwitch_4&amp;algo_expid=0ddabde7-9506-4439-aa30-068f2cf74923-1&amp;algo_pvid=0ddabde7-9506-4439-aa30-068f2cf74923&amp;transAbTest=ae803_2&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Full-Graphic-Smart-Controller-LCD-Display-for-RAMPS-1-4-RepRap-3D-Printer-Electronics-12864-display/32852039927.html?spm=2114.search0104.3.50.36d453aeuCGxi0&amp;ws_ab_test=searchweb0_0,searchweb201602_5_10846_10152_10065_10151_10344_10068_10342_10343_10340_10059_10341_10696_100031_10084_10083_10103_524_10618_10307_10624_10623_10622_10621_10620_10134,searchweb201603_35,ppcSwitch_4&amp;algo_expid=a277e213-a8b6-4e11-92a8-a214f019869e-7&amp;algo_pvid=a277e213-a8b6-4e11-92a8-a214f019869e&amp;transAbTest=ae803_2&amp;priceBeautifyAB=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,7 +463,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -471,9 +479,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,9 +519,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,26 +554,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,26 +589,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -818,8 +792,8 @@
         <v>18</v>
       </c>
       <c r="E2" s="12">
-        <f>SUM(E4:E65)</f>
-        <v>932.98000000000013</v>
+        <f>SUM(E4:E66)</f>
+        <v>970.88000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -968,7 +942,7 @@
         <v>3.45</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:E40" si="0">C9*D9</f>
+        <f t="shared" ref="E9:E41" si="0">C9*D9</f>
         <v>3.45</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -977,191 +951,188 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>14</v>
+        <v>37.9</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>37.9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6">
-        <v>66.56</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>66.56</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="6">
-        <v>10.8</v>
+        <v>66.56</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>10.8</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>34</v>
+        <v>66.56</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="6">
-        <v>2.8</v>
+        <v>10.8</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
+        <v>10.8</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>106</v>
+      <c r="G14" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="6">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>5.32</v>
+        <v>3.25</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>5.32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <f>3/6</f>
         <v>0.5</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1170,22 +1141,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="6">
-        <v>33.700000000000003</v>
+        <v>9.5</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>33.700000000000003</v>
+        <v>9.5</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1194,14 +1165,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="6">
-        <v>5.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>44</v>
@@ -1209,379 +1180,379 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>5.5</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
         <v>100</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <f>15/100</f>
         <v>0.15</v>
       </c>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <f>1.56/4</f>
         <v>0.39</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>17.29</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>34.58</v>
-      </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="6">
-        <v>204</v>
+        <v>17.29</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>56</v>
+        <v>34.58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="6">
-        <v>25.45</v>
+        <v>204</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>25.45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>25.45</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>25.45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <f>57.78/2</f>
         <v>28.89</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>57.78</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="G28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <f>10.3/4</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="G29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <f>29.19/3</f>
         <v>9.73</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>29.19</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="G30" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <f>18.4/2</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+      <c r="G31" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f>14.17/2</f>
         <v>7.085</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>14.17</v>
       </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <f>1.94/4</f>
         <v>0.48499999999999999</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>1.94</v>
       </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <f>6.62/2</f>
         <v>3.31</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>6.62</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6">
-        <v>10.9</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="0"/>
-        <v>43.6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" s="6">
-        <v>21</v>
+        <v>10.9</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43.6</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
@@ -1590,125 +1561,136 @@
         <v>2</v>
       </c>
       <c r="D36" s="6">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" s="6">
-        <v>0.15</v>
+        <v>6</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="6">
-        <v>1.6</v>
+        <v>0.15</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39" s="6">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>2.4</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="6"/>
+      <c r="G41" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1716,12 +1698,12 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1729,12 +1711,12 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1747,7 +1729,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1755,12 +1737,12 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1768,95 +1750,106 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
+      <c r="F50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>25</v>
       </c>
-      <c r="F52" t="s">
-        <v>100</v>
+      <c r="F53" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{84022C30-02C4-46EC-BBD8-D493156EA750}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{B119ECBC-A90B-4719-B295-CA7FB6FE5BA9}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{4BF03452-E187-4929-88EC-8033ED41DF15}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{465D9131-FF31-4E31-B89A-F86D90EBF2D6}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{B61B941B-A779-47EF-9DBF-B2506C76EE7D}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{E64E4B70-4C78-4440-9C93-80C175AB1389}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{4AEF9147-F0F9-4285-A5D2-0A9F989F14FA}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{D5818AA4-A9E9-4C68-90FC-A7EFEB2674F2}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{A886D7E1-CCC4-49E6-B0F0-DF92890961DB}"/>
-    <hyperlink ref="G16" r:id="rId10" xr:uid="{9AEEDAF2-AFD9-4C1C-8592-DE9A5CE50644}"/>
-    <hyperlink ref="G17" r:id="rId11" xr:uid="{61B5ECA3-6C76-46A4-943F-4D90128E54E8}"/>
-    <hyperlink ref="G19" r:id="rId12" xr:uid="{14BF7C9F-29D7-4B95-95C6-6103EC7D9195}"/>
-    <hyperlink ref="G18" r:id="rId13" xr:uid="{41A26133-EE67-493C-ACF8-BCB3D8239268}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{D7220C15-D2A8-4F50-9102-B586A0C239B2}"/>
-    <hyperlink ref="G20" r:id="rId15" xr:uid="{93BC79CB-38DC-43F0-9FEA-740872A87B2F}"/>
-    <hyperlink ref="G22" r:id="rId16" xr:uid="{C44A18AC-7EA9-4B91-9E6B-4B42293BDEB7}"/>
-    <hyperlink ref="G25" r:id="rId17" xr:uid="{3CE9F0C1-15E1-49DD-9431-346D7A0DA37A}"/>
-    <hyperlink ref="G27" r:id="rId18" xr:uid="{F1FABFA4-FF64-40EA-9D79-9BE376130AAF}"/>
-    <hyperlink ref="G30" r:id="rId19" xr:uid="{E5535309-2428-4912-B25C-6B637BBA07D7}"/>
-    <hyperlink ref="G29" r:id="rId20" xr:uid="{81D11312-274F-475D-A8DE-A096C3595F11}"/>
-    <hyperlink ref="G31" r:id="rId21" xr:uid="{1E261826-31F7-4DE2-86D7-7B54F31AC2CA}"/>
-    <hyperlink ref="G28" r:id="rId22" xr:uid="{AC606422-D825-4650-8C93-2705DBDFEC24}"/>
-    <hyperlink ref="G32" r:id="rId23" xr:uid="{27444E22-45EE-4431-9DA4-EFAF3EC77658}"/>
-    <hyperlink ref="G33" r:id="rId24" xr:uid="{FFE4FDC0-8692-4FAC-BBA7-696048CF6EF6}"/>
-    <hyperlink ref="G24" r:id="rId25" xr:uid="{12F18380-274F-458F-A5E8-90A5DB338385}"/>
-    <hyperlink ref="G26" r:id="rId26" xr:uid="{387C82AF-BFAD-4B21-98F6-DD5DF873DBD7}"/>
-    <hyperlink ref="G34" r:id="rId27" xr:uid="{D989BBC7-74FE-41F1-B744-762C9613EA31}"/>
-    <hyperlink ref="G38" r:id="rId28" xr:uid="{B3883437-B95C-483F-966E-265612F08791}"/>
-    <hyperlink ref="G36" r:id="rId29" xr:uid="{CDA65216-1F45-4680-951D-7219777BB957}"/>
-    <hyperlink ref="G35" r:id="rId30" xr:uid="{0268D412-8E4E-4123-8476-1309D49F8060}"/>
-    <hyperlink ref="G37" r:id="rId31" xr:uid="{26C83ADA-154B-4F5B-98C0-81F7628209CA}"/>
-    <hyperlink ref="G39" r:id="rId32" xr:uid="{90C6D425-118D-4340-AF2E-24EBAE6FF594}"/>
-    <hyperlink ref="G40" r:id="rId33" xr:uid="{1D6AEC28-1A09-4A84-A563-13FA41FA5599}"/>
-    <hyperlink ref="G23" r:id="rId34" xr:uid="{11E4EEFE-839F-4817-B79C-1FD3775880ED}"/>
-    <hyperlink ref="G13" r:id="rId35" xr:uid="{5C47A132-2061-40C2-BAFC-2004A40E3329}"/>
-    <hyperlink ref="G14" r:id="rId36" xr:uid="{D99571AD-D304-4C3A-AE25-2371231161C1}"/>
-    <hyperlink ref="G15" r:id="rId37" xr:uid="{A04D0F76-18D2-4C64-93A3-84A9C02D5682}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G20" r:id="rId10"/>
+    <hyperlink ref="G19" r:id="rId11"/>
+    <hyperlink ref="G22" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
+    <hyperlink ref="G23" r:id="rId14"/>
+    <hyperlink ref="G26" r:id="rId15"/>
+    <hyperlink ref="G28" r:id="rId16"/>
+    <hyperlink ref="G31" r:id="rId17"/>
+    <hyperlink ref="G30" r:id="rId18"/>
+    <hyperlink ref="G32" r:id="rId19"/>
+    <hyperlink ref="G29" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G34" r:id="rId22"/>
+    <hyperlink ref="G25" r:id="rId23"/>
+    <hyperlink ref="G27" r:id="rId24"/>
+    <hyperlink ref="G35" r:id="rId25"/>
+    <hyperlink ref="G39" r:id="rId26"/>
+    <hyperlink ref="G37" r:id="rId27"/>
+    <hyperlink ref="G36" r:id="rId28"/>
+    <hyperlink ref="G38" r:id="rId29"/>
+    <hyperlink ref="G40" r:id="rId30"/>
+    <hyperlink ref="G41" r:id="rId31"/>
+    <hyperlink ref="G24" r:id="rId32"/>
+    <hyperlink ref="G14" r:id="rId33"/>
+    <hyperlink ref="G15" r:id="rId34"/>
+    <hyperlink ref="G16" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Hardware/McuOpenPnP Bill of Material.xlsx
+++ b/Hardware/McuOpenPnP Bill of Material.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66A07BAC-F185-41A6-95BA-89156E4ADBA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>McuOpenPnP Machine Bill of Material</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>You need lots of them, in different sizes</t>
-  </si>
-  <si>
     <t>M5 T-Nuts</t>
   </si>
   <si>
@@ -190,9 +188,6 @@
     <t>Smoothieboard LCD Adapter</t>
   </si>
   <si>
-    <t>USB Cameras</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/720P-CMOS-micro-mini-usb-camera-board-for-android-windows-linux-equipment-manufacturers-ELP-USB100W03M-L60/32346777227.html</t>
   </si>
   <si>
@@ -241,9 +236,6 @@
     <t>Samsung CP40 Holder 5 mm Screw</t>
   </si>
   <si>
-    <t>LED Ring 60 mm 24V</t>
-  </si>
-  <si>
     <t>Distrelec</t>
   </si>
   <si>
@@ -362,12 +354,33 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/Full-Graphic-Smart-Controller-LCD-Display-for-RAMPS-1-4-RepRap-3D-Printer-Electronics-12864-display/32852039927.html?spm=2114.search0104.3.50.36d453aeuCGxi0&amp;ws_ab_test=searchweb0_0,searchweb201602_5_10846_10152_10065_10151_10344_10068_10342_10343_10340_10059_10341_10696_100031_10084_10083_10103_524_10618_10307_10624_10623_10622_10621_10620_10134,searchweb201603_35,ppcSwitch_4&amp;algo_expid=a277e213-a8b6-4e11-92a8-a214f019869e-7&amp;algo_pvid=a277e213-a8b6-4e11-92a8-a214f019869e&amp;transAbTest=ae803_2&amp;priceBeautifyAB=0</t>
+  </si>
+  <si>
+    <t>LED Ring 60 mm 24V, white</t>
+  </si>
+  <si>
+    <t>Optional, order 45cm if 42.5 is not available</t>
+  </si>
+  <si>
+    <t>Optional, used in the build to attach the frame to the ground plate</t>
+  </si>
+  <si>
+    <t>Better order a few more</t>
+  </si>
+  <si>
+    <t>You need lots of them, with different length</t>
+  </si>
+  <si>
+    <t>USB Camera OV9712, 6 mm Lens</t>
+  </si>
+  <si>
+    <t>You want a 6mm lens, 3.6 or 2.1 is too fisheye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +476,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -479,9 +492,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,9 +532,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,9 +567,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,9 +619,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,14 +811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -789,7 +836,7 @@
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="D2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(E4:E66)</f>
@@ -821,10 +868,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -837,16 +884,19 @@
         <f>C4*D4</f>
         <v>9.5399999999999991</v>
       </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -859,16 +909,19 @@
         <f>C5*D5</f>
         <v>9.5299999999999994</v>
       </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -881,16 +934,19 @@
         <f>C6*D6</f>
         <v>23.96</v>
       </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -904,15 +960,15 @@
         <v>66.680000000000007</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -925,15 +981,15 @@
         <v>19.2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -946,15 +1002,15 @@
         <v>3.45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -967,15 +1023,15 @@
         <v>37.9</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -988,15 +1044,15 @@
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1009,15 +1065,15 @@
         <v>66.56</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1030,15 +1086,15 @@
         <v>10.8</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1051,18 +1107,18 @@
         <v>16.799999999999997</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1075,18 +1131,18 @@
         <v>3.25</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1099,18 +1155,18 @@
         <v>5.32</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1124,18 +1180,18 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1148,18 +1204,18 @@
         <v>9.5</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1172,18 +1228,18 @@
         <v>33.700000000000003</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1196,18 +1252,18 @@
         <v>5.5</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1220,18 +1276,18 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1244,15 +1300,15 @@
         <v>50</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -1266,18 +1322,18 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1291,18 +1347,18 @@
         <v>1.56</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1315,18 +1371,18 @@
         <v>34.58</v>
       </c>
       <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1339,15 +1395,15 @@
         <v>204</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1360,18 +1416,18 @@
         <v>25.45</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1384,16 +1440,19 @@
         <f t="shared" si="0"/>
         <v>57.78</v>
       </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
       <c r="G28" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1407,15 +1466,15 @@
         <v>10.3</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1429,15 +1488,15 @@
         <v>29.19</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1450,16 +1509,19 @@
         <f t="shared" si="0"/>
         <v>18.399999999999999</v>
       </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
       <c r="G31" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1473,18 +1535,18 @@
         <v>14.17</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1498,18 +1560,18 @@
         <v>1.94</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1523,15 +1585,15 @@
         <v>6.62</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1544,18 +1606,18 @@
         <v>43.6</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1568,18 +1630,18 @@
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1592,18 +1654,18 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1616,15 +1678,15 @@
         <v>0.6</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1637,15 +1699,15 @@
         <v>1.6</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1658,15 +1720,15 @@
         <v>7.2</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1679,7 +1741,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,7 +1752,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1698,12 +1760,12 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1711,7 +1773,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,7 +1786,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1737,12 +1799,12 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1750,12 +1812,12 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1763,23 +1825,23 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1791,12 +1853,12 @@
         <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1808,46 +1870,46 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
-    <hyperlink ref="G9" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
-    <hyperlink ref="G12" r:id="rId8"/>
-    <hyperlink ref="G13" r:id="rId9"/>
-    <hyperlink ref="G20" r:id="rId10"/>
-    <hyperlink ref="G19" r:id="rId11"/>
-    <hyperlink ref="G22" r:id="rId12"/>
-    <hyperlink ref="G21" r:id="rId13"/>
-    <hyperlink ref="G23" r:id="rId14"/>
-    <hyperlink ref="G26" r:id="rId15"/>
-    <hyperlink ref="G28" r:id="rId16"/>
-    <hyperlink ref="G31" r:id="rId17"/>
-    <hyperlink ref="G30" r:id="rId18"/>
-    <hyperlink ref="G32" r:id="rId19"/>
-    <hyperlink ref="G29" r:id="rId20"/>
-    <hyperlink ref="G33" r:id="rId21"/>
-    <hyperlink ref="G34" r:id="rId22"/>
-    <hyperlink ref="G25" r:id="rId23"/>
-    <hyperlink ref="G27" r:id="rId24"/>
-    <hyperlink ref="G35" r:id="rId25"/>
-    <hyperlink ref="G39" r:id="rId26"/>
-    <hyperlink ref="G37" r:id="rId27"/>
-    <hyperlink ref="G36" r:id="rId28"/>
-    <hyperlink ref="G38" r:id="rId29"/>
-    <hyperlink ref="G40" r:id="rId30"/>
-    <hyperlink ref="G41" r:id="rId31"/>
-    <hyperlink ref="G24" r:id="rId32"/>
-    <hyperlink ref="G14" r:id="rId33"/>
-    <hyperlink ref="G15" r:id="rId34"/>
-    <hyperlink ref="G16" r:id="rId35"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId36"/>

--- a/Hardware/McuOpenPnP Bill of Material.xlsx
+++ b/Hardware/McuOpenPnP Bill of Material.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66A07BAC-F185-41A6-95BA-89156E4ADBA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>McuOpenPnP Machine Bill of Material</t>
   </si>
@@ -375,12 +374,15 @@
   </si>
   <si>
     <t>You want a 6mm lens, 3.6 or 2.1 is too fisheye</t>
+  </si>
+  <si>
+    <t>Depends on your configuration. You need at least 3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +478,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -492,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,9 +534,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,26 +569,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,26 +604,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -811,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -840,7 +808,7 @@
       </c>
       <c r="E2" s="12">
         <f>SUM(E4:E66)</f>
-        <v>970.88000000000011</v>
+        <v>974.48</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1710,14 +1678,17 @@
         <v>26</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="6">
         <v>1.8</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>10.8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>79</v>
@@ -1875,41 +1846,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G20" r:id="rId10"/>
+    <hyperlink ref="G19" r:id="rId11"/>
+    <hyperlink ref="G22" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
+    <hyperlink ref="G23" r:id="rId14"/>
+    <hyperlink ref="G26" r:id="rId15"/>
+    <hyperlink ref="G28" r:id="rId16"/>
+    <hyperlink ref="G31" r:id="rId17"/>
+    <hyperlink ref="G30" r:id="rId18"/>
+    <hyperlink ref="G32" r:id="rId19"/>
+    <hyperlink ref="G29" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G34" r:id="rId22"/>
+    <hyperlink ref="G25" r:id="rId23"/>
+    <hyperlink ref="G27" r:id="rId24"/>
+    <hyperlink ref="G35" r:id="rId25"/>
+    <hyperlink ref="G39" r:id="rId26"/>
+    <hyperlink ref="G37" r:id="rId27"/>
+    <hyperlink ref="G36" r:id="rId28"/>
+    <hyperlink ref="G38" r:id="rId29"/>
+    <hyperlink ref="G40" r:id="rId30"/>
+    <hyperlink ref="G41" r:id="rId31"/>
+    <hyperlink ref="G24" r:id="rId32"/>
+    <hyperlink ref="G14" r:id="rId33"/>
+    <hyperlink ref="G15" r:id="rId34"/>
+    <hyperlink ref="G16" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId36"/>
